--- a/data/trans_dic/P64D$noloshace_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$noloshace_2023-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.02934108467661962</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03247482154668254</v>
+        <v>0.03247482154668253</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01249268808486353</v>
+        <v>0.01260488842483002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01247515125938173</v>
+        <v>0.01196584165811725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01601828041787459</v>
+        <v>0.01639150305049357</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09516841750917931</v>
+        <v>0.0998925130755203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05911393594456749</v>
+        <v>0.05874277289740588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06329227897962014</v>
+        <v>0.06238093889494391</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01740469452114411</v>
+        <v>0.01849390224946777</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01449943309263</v>
+        <v>0.01447373556503843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02032445298286713</v>
+        <v>0.01941642973618185</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05834529209031018</v>
+        <v>0.05589330172877861</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04783697360417248</v>
+        <v>0.05172414430627625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0470207572161702</v>
+        <v>0.04651132732193861</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.03714017957465392</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04793672305910272</v>
+        <v>0.04793672305910273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.04189035024016663</v>
+        <v>0.04189035024016664</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02245260707791587</v>
+        <v>0.0238323049001534</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03312079935903475</v>
+        <v>0.0336476643123451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03085960430066415</v>
+        <v>0.0311313153611643</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05716289048132443</v>
+        <v>0.05830574558403211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06794498546638206</v>
+        <v>0.06779393229025657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05598073874493448</v>
+        <v>0.05573850000250325</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06440054109286042</v>
+        <v>0.06440054109286041</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.0507885943230186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05842930511149993</v>
+        <v>0.05842930511149992</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04327192532165266</v>
+        <v>0.0437599672514551</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03456585304534895</v>
+        <v>0.03473540424511754</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0449581668001766</v>
+        <v>0.04424655307488182</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09252520955193011</v>
+        <v>0.09338212823535223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07099565369381491</v>
+        <v>0.07241899227997753</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07524463290419764</v>
+        <v>0.07597170310632137</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03446812750152406</v>
+        <v>0.03463916941134201</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03291143776941989</v>
+        <v>0.03258394934862536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03636351579802753</v>
+        <v>0.03598034629136645</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0569786743618549</v>
+        <v>0.05632647030444829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05116037963805287</v>
+        <v>0.05101907517730866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05124924376515083</v>
+        <v>0.05057996847128522</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2128</v>
+        <v>2041</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5578</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16908</v>
+        <v>17748</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10082</v>
+        <v>10019</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22040</v>
+        <v>21722</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8883</v>
+        <v>9439</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5221</v>
+        <v>5212</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17692</v>
+        <v>16902</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29779</v>
+        <v>28527</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17226</v>
+        <v>18626</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40931</v>
+        <v>40487</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13965</v>
+        <v>14823</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16184</v>
+        <v>16442</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34273</v>
+        <v>34575</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35554</v>
+        <v>36265</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33201</v>
+        <v>33127</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>62173</v>
+        <v>61904</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25553</v>
+        <v>25841</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15952</v>
+        <v>16030</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47297</v>
+        <v>46548</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54638</v>
+        <v>55144</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32764</v>
+        <v>33421</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>79159</v>
+        <v>79924</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65509</v>
+        <v>65834</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48735</v>
+        <v>48250</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>122958</v>
+        <v>121662</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>108291</v>
+        <v>107052</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>75758</v>
+        <v>75548</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>173291</v>
+        <v>171028</v>
       </c>
     </row>
     <row r="24">
